--- a/dataJK.xlsx
+++ b/dataJK.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84835D7-8C7E-4777-A8FC-2322AD181288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E5411-4390-4EB6-8743-EB23726C73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
   <si>
     <t>T - Treppe(n), A - Aufzug, Sw - Stockwerke, U - nach unten, O - nach oben</t>
   </si>
@@ -331,52 +331,7 @@
     <t>Bachelor</t>
   </si>
   <si>
-    <t>So einen perfekten Fragebogen habe ich noch nie ausgefüllt</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Mensa</t>
-  </si>
-  <si>
     <t>Papier</t>
-  </si>
-  <si>
-    <t>Farbcode:</t>
-  </si>
-  <si>
-    <t>Rot = Frage</t>
-  </si>
-  <si>
-    <t>Gelb = Unklar</t>
-  </si>
-  <si>
-    <t>Min -19??</t>
-  </si>
-  <si>
-    <t>ab hier richtige Einträge</t>
-  </si>
-  <si>
-    <t>in mm</t>
-  </si>
-  <si>
-    <t>Nie = -1</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>mitteln bei bereichen??</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>cm</t>
   </si>
   <si>
     <t>T</t>
@@ -481,14 +436,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-407]hh&quot;:&quot;mm&quot;:&quot;ss"/>
     <numFmt numFmtId="165" formatCode="[$-409]General"/>
     <numFmt numFmtId="166" formatCode="[$-C09]General"/>
-    <numFmt numFmtId="167" formatCode="[$-407]dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-407]dd&quot;.&quot;mm&quot;.&quot;yy"/>
-    <numFmt numFmtId="169" formatCode="[$-407]hh&quot;:&quot;mm"/>
     <numFmt numFmtId="170" formatCode="[$-407]General"/>
     <numFmt numFmtId="171" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
@@ -564,26 +517,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading" xfId="2"/>
-    <cellStyle name="Heading1" xfId="3"/>
-    <cellStyle name="Result" xfId="4"/>
-    <cellStyle name="Result2" xfId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Result" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,9 +550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,7 +590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -746,7 +696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -888,71 +838,73 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.9375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.8125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.4375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.9375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="35.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.4375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.9375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.1875" style="1" customWidth="1"/>
-    <col min="21" max="23" width="9.9375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="25.6875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.25" style="1" customWidth="1"/>
+    <col min="21" max="23" width="10" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.0625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.125" style="1" customWidth="1"/>
     <col min="27" max="27" width="29.375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.9375" style="2" customWidth="1"/>
-    <col min="29" max="30" width="9.9375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="17.5625" style="1" customWidth="1"/>
-    <col min="32" max="33" width="9.9375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.3125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.9375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.9375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.9375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="22.4375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="2" customWidth="1"/>
+    <col min="29" max="30" width="10" style="3" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="10" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5" style="1" customWidth="1"/>
     <col min="39" max="39" width="27.375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="28.3125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="28.375" style="1" customWidth="1"/>
     <col min="41" max="41" width="37.125" style="1" customWidth="1"/>
     <col min="42" max="42" width="35.875" style="1" customWidth="1"/>
     <col min="43" max="43" width="29.625" style="1" customWidth="1"/>
     <col min="44" max="44" width="31.5" style="1" customWidth="1"/>
-    <col min="45" max="45" width="22.1875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="51.0625" style="1" customWidth="1"/>
-    <col min="47" max="50" width="9.9375" style="1" customWidth="1"/>
-    <col min="51" max="51" width="11.8125" style="1" customWidth="1"/>
-    <col min="52" max="1024" width="9.9375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="22.25" style="1" customWidth="1"/>
+    <col min="46" max="46" width="51.125" style="1" customWidth="1"/>
+    <col min="47" max="50" width="10" style="1" customWidth="1"/>
+    <col min="51" max="51" width="11.875" style="1" customWidth="1"/>
+    <col min="52" max="1024" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1273,118 +1225,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-30</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-25</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
+        <v>-19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-20</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>25</v>
-      </c>
-      <c r="N5" s="1">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>5</v>
-      </c>
       <c r="R5" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S5" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T5" s="1">
         <v>10</v>
       </c>
       <c r="U5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="W5" s="1">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AA5" s="1">
         <v>1</v>
       </c>
       <c r="AB5" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>2</v>
       </c>
       <c r="AE5" s="1">
         <v>6</v>
       </c>
       <c r="AF5" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AG5" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AI5" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="1">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AK5" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="AN5" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AO5" s="1">
         <v>0</v>
       </c>
@@ -1397,356 +1358,798 @@
       <c r="AR5" s="1">
         <v>0</v>
       </c>
+      <c r="AS5" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="AT5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>45250</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AU5" s="5">
-        <v>44638</v>
-      </c>
-      <c r="AV5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>106</v>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-19</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>26</v>
+      </c>
+      <c r="W6" s="1">
+        <v>32</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>178</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>25</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>45252</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="6"/>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-18</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-16</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-14</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1">
+        <v>18</v>
+      </c>
+      <c r="W7" s="1">
+        <v>23</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>180</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>45252</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-16</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1">
+        <v>8</v>
+      </c>
+      <c r="V8" s="1">
+        <v>13</v>
+      </c>
+      <c r="W8" s="1">
+        <v>19</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>120</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>24</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>180</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>45252</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW8" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="AX8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-17</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-18</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7</v>
-      </c>
       <c r="I9" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1">
         <v>6</v>
       </c>
       <c r="K9" s="1">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N9" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S9" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="T9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="1">
+        <v>16</v>
+      </c>
+      <c r="V9" s="1">
+        <v>26</v>
+      </c>
+      <c r="W9" s="1">
+        <v>34</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="1">
         <v>20</v>
       </c>
-      <c r="V9" s="1">
-        <v>36</v>
-      </c>
-      <c r="W9" s="1">
-        <v>37</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>24</v>
-      </c>
       <c r="AH9" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI9" s="1">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AJ9" s="1">
-        <v>173</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>42</v>
+        <v>155</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AO9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU9" s="10">
-        <v>45250</v>
-      </c>
-      <c r="AV9" s="11">
-        <v>0.89583333333333337</v>
+        <v>105</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="E10" s="1">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>-19</v>
       </c>
       <c r="G10" s="1">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="H10" s="1">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="L10" s="1">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="M10" s="1">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="N10" s="1">
+        <v>18</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>21</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>8</v>
+      </c>
+      <c r="V10" s="1">
+        <v>22</v>
+      </c>
+      <c r="W10" s="1">
+        <v>30</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="1">
         <v>10</v>
       </c>
-      <c r="O10" s="1">
-        <v>7</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>26</v>
-      </c>
-      <c r="W10" s="1">
-        <v>32</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>45</v>
-      </c>
       <c r="AG10" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AI10" s="1">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ10" s="1">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AK10" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AO10" s="1">
         <v>0</v>
@@ -1755,1003 +2158,359 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU10" s="10">
-        <v>45252</v>
+        <v>105</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AY10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
-    <row r="11" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="E11" s="1">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="G11" s="1">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="H11" s="1">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1">
-        <v>-18</v>
+        <v>-5</v>
       </c>
       <c r="L11" s="1">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="N11" s="1">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U11" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V11" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W11" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="AD11" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AE11" s="1">
         <v>5</v>
       </c>
       <c r="AF11" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG11" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="1">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>183</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AJ11" s="1">
-        <v>180</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>45</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AT11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU11" s="10">
-        <v>45252</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="12" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v>-12</v>
       </c>
       <c r="F12" s="1">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="G12" s="1">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
       </c>
       <c r="K12" s="1">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="L12" s="1">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="M12" s="1">
+        <v>-5</v>
+      </c>
+      <c r="N12" s="1">
         <v>5</v>
       </c>
-      <c r="N12" s="1">
-        <v>13</v>
-      </c>
       <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>16</v>
+      </c>
+      <c r="U12" s="1">
+        <v>23</v>
+      </c>
+      <c r="V12" s="1">
+        <v>32</v>
+      </c>
+      <c r="W12" s="1">
+        <v>32</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
         <v>5</v>
       </c>
-      <c r="P12" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE12" s="1">
         <v>5</v>
       </c>
-      <c r="R12" s="1">
+      <c r="AF12" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>22</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>59</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>173</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>38</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
         <v>6</v>
       </c>
-      <c r="S12" s="1">
-        <v>8</v>
-      </c>
-      <c r="T12" s="1">
-        <v>4</v>
-      </c>
-      <c r="U12" s="1">
-        <v>8</v>
-      </c>
-      <c r="V12" s="1">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1">
-        <v>19</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>6</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>120</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>24</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>180</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>42</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU12" s="10">
-        <v>45252</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-17</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>8</v>
-      </c>
-      <c r="N13" s="1">
-        <v>14</v>
-      </c>
-      <c r="O13" s="1">
-        <v>4</v>
-      </c>
-      <c r="P13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>5</v>
-      </c>
-      <c r="R13" s="1">
-        <v>12</v>
-      </c>
-      <c r="S13" s="1">
-        <v>17</v>
-      </c>
-      <c r="T13" s="1">
-        <v>8</v>
-      </c>
-      <c r="U13" s="1">
-        <v>16</v>
-      </c>
-      <c r="V13" s="1">
-        <v>26</v>
-      </c>
-      <c r="W13" s="1">
-        <v>34</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>53</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>155</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-19</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-6</v>
-      </c>
-      <c r="H14" s="1">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-18</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>14</v>
-      </c>
-      <c r="N14" s="1">
-        <v>18</v>
-      </c>
-      <c r="O14" s="1">
-        <v>4</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>3</v>
-      </c>
-      <c r="R14" s="1">
-        <v>4</v>
-      </c>
-      <c r="S14" s="1">
-        <v>21</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>8</v>
-      </c>
-      <c r="V14" s="1">
-        <v>22</v>
-      </c>
-      <c r="W14" s="1">
-        <v>30</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>20</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>6</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>98</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>186</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>46</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1">
-        <v>-5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>8</v>
-      </c>
-      <c r="N15" s="1">
-        <v>15</v>
-      </c>
-      <c r="O15" s="1">
-        <v>4</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>7</v>
-      </c>
-      <c r="R15" s="1">
-        <v>11</v>
-      </c>
-      <c r="S15" s="1">
-        <v>19</v>
-      </c>
-      <c r="T15" s="1">
-        <v>9</v>
-      </c>
-      <c r="U15" s="1">
-        <v>14</v>
-      </c>
-      <c r="V15" s="1">
-        <v>21</v>
-      </c>
-      <c r="W15" s="1">
-        <v>31</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>183</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>42</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-12</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1">
-        <v>19</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-17</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-13</v>
-      </c>
-      <c r="M16" s="1">
-        <v>-5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>5</v>
-      </c>
-      <c r="O16" s="1">
-        <v>10</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>3</v>
-      </c>
-      <c r="T16" s="1">
-        <v>16</v>
-      </c>
-      <c r="U16" s="1">
-        <v>23</v>
-      </c>
-      <c r="V16" s="1">
-        <v>32</v>
-      </c>
-      <c r="W16" s="1">
-        <v>32</v>
-      </c>
-      <c r="X16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>66</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>22</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>59</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>173</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>38</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB16" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/dataJK.xlsx
+++ b/dataJK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E5411-4390-4EB6-8743-EB23726C73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF99EA-1E89-4EF4-9A95-C72828789F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
   <si>
     <t>T - Treppe(n), A - Aufzug, Sw - Stockwerke, U - nach unten, O - nach oben</t>
   </si>
@@ -337,12 +337,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
@@ -427,10 +421,10 @@
     <t>JK07</t>
   </si>
   <si>
-    <t>Ja aber NA</t>
-  </si>
-  <si>
     <t>JK08</t>
+  </si>
+  <si>
+    <t>nie</t>
   </si>
 </sst>
 </file>
@@ -441,9 +435,9 @@
     <numFmt numFmtId="164" formatCode="[$-407]hh&quot;:&quot;mm&quot;:&quot;ss"/>
     <numFmt numFmtId="165" formatCode="[$-409]General"/>
     <numFmt numFmtId="166" formatCode="[$-C09]General"/>
-    <numFmt numFmtId="168" formatCode="[$-407]dd&quot;.&quot;mm&quot;.&quot;yy"/>
-    <numFmt numFmtId="170" formatCode="[$-407]General"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
+    <numFmt numFmtId="167" formatCode="[$-407]dd&quot;.&quot;mm&quot;.&quot;yy"/>
+    <numFmt numFmtId="168" formatCode="[$-407]General"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -507,7 +501,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -515,17 +509,17 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -848,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,20 +1292,14 @@
       <c r="X5" s="1">
         <v>0</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA5" s="1">
         <v>1</v>
       </c>
       <c r="AB5" s="2">
         <v>1</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>106</v>
+      <c r="AC5" s="6">
+        <v>0.75</v>
       </c>
       <c r="AD5" s="6">
         <v>2</v>
@@ -1326,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AI5" s="1">
         <v>70</v>
@@ -1338,14 +1326,11 @@
         <v>42</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AO5" s="1">
         <v>0</v>
       </c>
@@ -1359,10 +1344,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AU5" s="7">
         <v>45250</v>
@@ -1371,10 +1353,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>103</v>
@@ -1383,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -1414,8 +1396,8 @@
       <c r="I6" s="1">
         <v>-19</v>
       </c>
-      <c r="J6" s="1">
-        <v>-1</v>
+      <c r="J6" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="K6" s="1">
         <v>-19</v>
@@ -1459,12 +1441,6 @@
       <c r="X6" s="1">
         <v>0</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA6" s="1">
         <v>0</v>
       </c>
@@ -1499,14 +1475,11 @@
         <v>42</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AO6" s="1">
         <v>0</v>
       </c>
@@ -1520,31 +1493,22 @@
         <v>25</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AU6" s="7">
         <v>45252</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AW6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AZ6" s="1">
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -1575,8 +1539,8 @@
       <c r="I7" s="1">
         <v>-15</v>
       </c>
-      <c r="J7" s="1">
-        <v>-1</v>
+      <c r="J7" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="K7" s="1">
         <v>-18</v>
@@ -1590,8 +1554,8 @@
       <c r="N7" s="1">
         <v>-14</v>
       </c>
-      <c r="O7" s="1">
-        <v>-1</v>
+      <c r="O7" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1620,12 +1584,6 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA7" s="1">
         <v>0</v>
       </c>
@@ -1651,7 +1609,7 @@
         <v>100</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AJ7" s="1">
         <v>180</v>
@@ -1659,14 +1617,8 @@
       <c r="AK7" s="1">
         <v>45</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AN7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -1681,31 +1633,22 @@
         <v>34</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AU7" s="7">
         <v>45252</v>
       </c>
-      <c r="AV7" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AW7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AZ7" s="1">
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -1781,12 +1724,6 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA8" s="1">
         <v>1</v>
       </c>
@@ -1820,14 +1757,8 @@
       <c r="AK8" s="1">
         <v>42</v>
       </c>
-      <c r="AL8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AN8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
@@ -1842,31 +1773,22 @@
         <v>4</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AU8" s="7">
         <v>45252</v>
       </c>
-      <c r="AV8" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AW8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AZ8" s="1">
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -1942,12 +1864,6 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA9" s="1">
         <v>0</v>
       </c>
@@ -1970,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI9" s="1">
         <v>53</v>
@@ -1979,17 +1895,14 @@
         <v>155</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AO9" s="1">
         <v>1</v>
       </c>
@@ -2002,32 +1915,20 @@
       <c r="AR9" s="1">
         <v>3</v>
       </c>
-      <c r="AS9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AU9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -2103,12 +2004,6 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA10" s="1">
         <v>0</v>
       </c>
@@ -2142,14 +2037,8 @@
       <c r="AK10" s="1">
         <v>46</v>
       </c>
-      <c r="AL10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AN10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AO10" s="1">
         <v>0</v>
@@ -2164,22 +2053,16 @@
         <v>7</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>103</v>
@@ -2188,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -2264,12 +2147,6 @@
       <c r="X11" s="1">
         <v>0</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AA11" s="1">
         <v>0</v>
       </c>
@@ -2309,9 +2186,6 @@
       <c r="AM11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AO11" s="1">
         <v>0</v>
       </c>
@@ -2325,22 +2199,19 @@
         <v>8</v>
       </c>
       <c r="AS11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX11" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>103</v>
@@ -2349,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2453,7 +2324,7 @@
         <v>22</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AI12" s="1">
         <v>59</v>
@@ -2464,15 +2335,10 @@
       <c r="AK12" s="1">
         <v>38</v>
       </c>
-      <c r="AL12" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="AL12" s="5"/>
       <c r="AM12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AO12" s="1">
         <v>0</v>
       </c>
@@ -2485,23 +2351,14 @@
       <c r="AR12" s="1">
         <v>6</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AU12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>103</v>
@@ -2510,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/dataJK.xlsx
+++ b/dataJK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF99EA-1E89-4EF4-9A95-C72828789F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220FD0B-7486-47F6-B82B-B948CB9DFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="3450" windowWidth="22215" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
   <si>
     <t>T - Treppe(n), A - Aufzug, Sw - Stockwerke, U - nach unten, O - nach oben</t>
   </si>
@@ -367,9 +367,6 @@
     <t>JK02</t>
   </si>
   <si>
-    <t>80-85</t>
-  </si>
-  <si>
     <t>Freiberuflich Social Media Manager / Fotograf</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>36.5</t>
-  </si>
-  <si>
     <t>Biologie</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
   </si>
   <si>
     <t>JK08</t>
-  </si>
-  <si>
-    <t>nie</t>
   </si>
 </sst>
 </file>
@@ -842,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,8 +1387,8 @@
       <c r="I6" s="1">
         <v>-19</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>134</v>
+      <c r="J6" s="1">
+        <v>-1</v>
       </c>
       <c r="K6" s="1">
         <v>-19</v>
@@ -1539,8 +1530,8 @@
       <c r="I7" s="1">
         <v>-15</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>134</v>
+      <c r="J7" s="1">
+        <v>-1</v>
       </c>
       <c r="K7" s="1">
         <v>-18</v>
@@ -1554,8 +1545,8 @@
       <c r="N7" s="1">
         <v>-14</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>134</v>
+      <c r="O7" s="1">
+        <v>-1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1608,8 +1599,8 @@
       <c r="AH7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>115</v>
+      <c r="AI7" s="5">
+        <v>82.5</v>
       </c>
       <c r="AJ7" s="1">
         <v>180</v>
@@ -1618,7 +1609,7 @@
         <v>45</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -1633,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU7" s="7">
         <v>45252</v>
@@ -1648,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -1758,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
@@ -1773,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU8" s="7">
         <v>45252</v>
@@ -1788,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -1886,7 +1877,7 @@
         <v>20</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI9" s="1">
         <v>53</v>
@@ -1894,11 +1885,11 @@
       <c r="AJ9" s="1">
         <v>155</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>123</v>
+      <c r="AK9" s="1">
+        <v>36.5</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>102</v>
@@ -1916,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AW9" s="1" t="s">
         <v>108</v>
@@ -1928,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -2038,7 +2029,7 @@
         <v>46</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AO10" s="1">
         <v>0</v>
@@ -2053,10 +2044,10 @@
         <v>7</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AW10" s="1" t="s">
         <v>108</v>
@@ -2071,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -2199,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AW11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>103</v>
@@ -2220,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2352,13 +2343,13 @@
         <v>6</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>103</v>
@@ -2367,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
